--- a/Rumi/MschemaBS.xlsx
+++ b/Rumi/MschemaBS.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216A3DC9-6E1C-4181-9FE3-D5B82F51FB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4D650A-5BC9-4329-B896-A327020CCFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2CE3A5E2-9228-41D5-BA51-51DDF36D6524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2CE3A5E2-9228-41D5-BA51-51DDF36D6524}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="To Review" sheetId="2" r:id="rId2"/>
+    <sheet name="Loyalty.md" sheetId="3" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId2"/>
+    <sheet name="To Review" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="315">
   <si>
     <t>clients</t>
   </si>
@@ -878,13 +879,124 @@
   </si>
   <si>
     <t>Max redemption usage</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>## Tech Stack</t>
+  </si>
+  <si>
+    <t>Subheader</t>
+  </si>
+  <si>
+    <t>### Frontend</t>
+  </si>
+  <si>
+    <t>### Backend</t>
+  </si>
+  <si>
+    <t>### Data &amp; Auth</t>
+  </si>
+  <si>
+    <t>### Infrastructure</t>
+  </si>
+  <si>
+    <t>### Development Tools</t>
+  </si>
+  <si>
+    <t>### Key Architecture Decision</t>
+  </si>
+  <si>
+    <t>## System Architecture</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>High-level logical architecture showing primary components and data flows</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>## API Security</t>
+  </si>
+  <si>
+    <t>### API Route Inventory (23 routes)</t>
+  </si>
+  <si>
+    <t>Needs updated after API_CONTRACTS.md</t>
+  </si>
+  <si>
+    <t>### Rate Limiting Implementation</t>
+  </si>
+  <si>
+    <t>### Input Validation (Zod)</t>
+  </si>
+  <si>
+    <t>### CSRF Protection</t>
+  </si>
+  <si>
+    <t>### File Upload Security (Logo Images)</t>
+  </si>
+  <si>
+    <t>## Mission &amp; Reward Lifecycle Model</t>
+  </si>
+  <si>
+    <t>### Two Separate Lifecycles</t>
+  </si>
+  <si>
+    <t>Missions complete &amp;  Reward Claiming flow (mission_progress and redemptions table)</t>
+  </si>
+  <si>
+    <t>### How The Two Lifecycles Connect</t>
+  </si>
+  <si>
+    <t>## Data Flows</t>
+  </si>
+  <si>
+    <t>### Discovery &amp; Onboarding Model</t>
+  </si>
+  <si>
+    <t>### Flow 1: Daily Metrics Sync (Automated)</t>
+  </si>
+  <si>
+    <t>## Critical Implementation Patterns</t>
+  </si>
+  <si>
+    <t>### Pattern 1: Transactional Workflows (Atomicity)</t>
+  </si>
+  <si>
+    <t>### Pattern 2: Idempotent Operations (Uniqueness Constraints)</t>
+  </si>
+  <si>
+    <t>### Pattern 3: State Transition Validation (Database Triggers)</t>
+  </si>
+  <si>
+    <t>### Pattern 4: Auto-Sync Triggers (Commission Boost Status)</t>
+  </si>
+  <si>
+    <t>### Pattern 5: Status Validation Constraints</t>
+  </si>
+  <si>
+    <t>### Pattern 6: VIP Reward Lifecycle Management (Backfill + Soft Delete)</t>
+  </si>
+  <si>
+    <t>### Pattern 7: Commission Boost State History (Audit Trail)</t>
+  </si>
+  <si>
+    <t>### Pattern 8: Multi-Tenant Query Isolation (Cross-Tenant Mutation Prevention)</t>
+  </si>
+  <si>
+    <t>### Pattern 9: Sensitive Data Encryption (Payment Account Security)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,6 +1028,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
@@ -1016,9 +1135,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,12 +1144,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1367,12 +1484,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C646EFC9-76BE-47C4-938D-0A30980E5B72}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA631C9-58B8-4963-B3B7-3A6F4F3501D9}">
   <dimension ref="A1:K171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,13 +2544,13 @@
       <c r="B39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -2195,13 +2564,13 @@
       <c r="B40" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -2212,13 +2581,13 @@
       <c r="A41" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -2229,13 +2598,13 @@
       <c r="A42" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -2252,13 +2621,13 @@
       <c r="C43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H43" s="9" t="s">
@@ -2275,13 +2644,13 @@
       <c r="C44" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2295,13 +2664,13 @@
       <c r="C45" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H45" s="13" t="s">
@@ -2321,13 +2690,13 @@
       <c r="C46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H46" s="13" t="s">
@@ -2344,13 +2713,13 @@
       <c r="C47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H47" s="13" t="s">
@@ -2367,13 +2736,13 @@
       <c r="C48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H48" s="13" t="s">
@@ -2390,13 +2759,13 @@
       <c r="C49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H49" s="13" t="s">
@@ -2413,13 +2782,13 @@
       <c r="C50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H50" s="13" t="s">
@@ -2434,13 +2803,13 @@
         <v>106</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H51" s="13" t="s">
@@ -2453,13 +2822,13 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H52" s="13"/>
@@ -2470,13 +2839,13 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2490,13 +2859,13 @@
       <c r="C54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H54" s="9" t="s">
@@ -2513,13 +2882,13 @@
       <c r="C55" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H55" s="9"/>
@@ -2534,13 +2903,13 @@
       <c r="C56" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H56" s="13" t="s">
@@ -2554,13 +2923,13 @@
       <c r="B57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H57" s="13" t="s">
@@ -3948,15 +4317,15 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="19" t="s">
+      <c r="A125" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19" t="s">
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E125" s="18" t="s">
         <v>197</v>
       </c>
       <c r="F125" s="3" t="s">
@@ -3967,17 +4336,17 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="19" t="s">
+      <c r="A126" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="B126" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19" t="s">
+      <c r="C126" s="18"/>
+      <c r="D126" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="E126" s="19" t="s">
+      <c r="E126" s="18" t="s">
         <v>197</v>
       </c>
       <c r="F126" s="3" t="s">
@@ -3988,19 +4357,19 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="20" t="s">
+      <c r="A127" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D127" s="20" t="s">
+      <c r="D127" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="E127" s="20" t="s">
+      <c r="E127" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F127" s="3" t="s">
@@ -4071,14 +4440,14 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="17" t="s">
+      <c r="A131" s="16" t="s">
         <v>267</v>
       </c>
       <c r="C131"/>
       <c r="D131" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G131" s="18" t="s">
+      <c r="G131" s="17" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4867,11 +5236,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30226BB2-39EA-4C0B-A2E1-DCD64F5A2F54}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4:H8"/>
     </sheetView>
   </sheetViews>
@@ -4893,7 +5262,7 @@
       <c r="A2" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4901,32 +5270,32 @@
       <c r="A3" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>277</v>
       </c>
     </row>

--- a/Rumi/MschemaBS.xlsx
+++ b/Rumi/MschemaBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4D650A-5BC9-4329-B896-A327020CCFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1432E479-17EE-460A-828E-906A26C925C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2CE3A5E2-9228-41D5-BA51-51DDF36D6524}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="330">
   <si>
     <t>clients</t>
   </si>
@@ -990,6 +990,51 @@
   </si>
   <si>
     <t>### Pattern 9: Sensitive Data Encryption (Payment Account Security)</t>
+  </si>
+  <si>
+    <t>### Flow 2: Automatic Creator Onboarding</t>
+  </si>
+  <si>
+    <t>Check after signup API Contract is created</t>
+  </si>
+  <si>
+    <t>Areas of Impact</t>
+  </si>
+  <si>
+    <t>auth pages flow</t>
+  </si>
+  <si>
+    <t>Codex Audit - Architecture musts</t>
+  </si>
+  <si>
+    <t>How creators join program. Two Paths: Cruva-Sourced Creators + Word-of-outh Creators</t>
+  </si>
+  <si>
+    <t>### Flow 3: Creator First-Time Registration</t>
+  </si>
+  <si>
+    <t>### Flow 4: Returning User Login</t>
+  </si>
+  <si>
+    <t>### Flow 5: Password Reset (Magic Link)</t>
+  </si>
+  <si>
+    <t>### Flow 6: Email Verification System (OTP)</t>
+  </si>
+  <si>
+    <t>### Flow 7: Daily Tier Calculation (Automated)</t>
+  </si>
+  <si>
+    <t>Creator Flows</t>
+  </si>
+  <si>
+    <t>### Flow 7: Admin Adds Creator Manually</t>
+  </si>
+  <si>
+    <t>### Flow 8: Creator Claims Reward</t>
+  </si>
+  <si>
+    <t>This is a daily flow, automated. Not related to creators login flows</t>
   </si>
 </sst>
 </file>
@@ -1485,10 +1530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C646EFC9-76BE-47C4-938D-0A30980E5B72}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,9 +1543,10 @@
     <col min="2" max="2" width="47.85546875" customWidth="1"/>
     <col min="3" max="3" width="69.140625" customWidth="1"/>
     <col min="4" max="4" width="44.85546875" customWidth="1"/>
+    <col min="5" max="5" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>278</v>
       </c>
@@ -1512,8 +1559,11 @@
       <c r="D1" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -1521,7 +1571,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>279</v>
       </c>
@@ -1529,7 +1579,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>279</v>
       </c>
@@ -1537,7 +1587,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>279</v>
       </c>
@@ -1545,7 +1595,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>279</v>
       </c>
@@ -1553,7 +1603,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>279</v>
       </c>
@@ -1561,7 +1611,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>287</v>
       </c>
@@ -1572,7 +1622,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -1580,7 +1630,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>291</v>
       </c>
@@ -1591,7 +1641,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>291</v>
       </c>
@@ -1599,7 +1649,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>291</v>
       </c>
@@ -1607,7 +1657,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>291</v>
       </c>
@@ -1615,7 +1665,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>291</v>
       </c>
@@ -1623,7 +1673,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -1634,7 +1684,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>298</v>
       </c>
@@ -1642,7 +1692,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>302</v>
       </c>
@@ -1650,7 +1700,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>298</v>
       </c>
@@ -1658,76 +1708,217 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>305</v>
       </c>
       <c r="B19" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>305</v>
       </c>
       <c r="B20" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>305</v>
       </c>
       <c r="B21" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>305</v>
       </c>
       <c r="B22" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>305</v>
       </c>
       <c r="B23" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>305</v>
       </c>
       <c r="B24" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>305</v>
       </c>
       <c r="B25" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>305</v>
       </c>
       <c r="B26" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>305</v>
       </c>
       <c r="B27" t="s">
         <v>314</v>
+      </c>
+      <c r="C27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" t="s">
+        <v>315</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>305</v>
+      </c>
+      <c r="B29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" t="s">
+        <v>320</v>
+      </c>
+      <c r="E29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>305</v>
+      </c>
+      <c r="B30" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E30" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>305</v>
+      </c>
+      <c r="B31" t="s">
+        <v>322</v>
+      </c>
+      <c r="C31" t="s">
+        <v>326</v>
+      </c>
+      <c r="E31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" t="s">
+        <v>326</v>
+      </c>
+      <c r="E32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" t="s">
+        <v>326</v>
+      </c>
+      <c r="E33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>305</v>
+      </c>
+      <c r="B34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>305</v>
+      </c>
+      <c r="B35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C35" t="s">
+        <v>326</v>
+      </c>
+      <c r="E35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>305</v>
+      </c>
+      <c r="B36" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/Rumi/MschemaBS.xlsx
+++ b/Rumi/MschemaBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jorge\Loyalty\Rumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1432E479-17EE-460A-828E-906A26C925C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFBD858-9182-4649-88E5-6F8A19A0A981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2CE3A5E2-9228-41D5-BA51-51DDF36D6524}"/>
+    <workbookView xWindow="8475" yWindow="135" windowWidth="15195" windowHeight="15450" xr2:uid="{2CE3A5E2-9228-41D5-BA51-51DDF36D6524}"/>
   </bookViews>
   <sheets>
     <sheet name="Loyalty.md" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="344">
   <si>
     <t>clients</t>
   </si>
@@ -1035,6 +1035,48 @@
   </si>
   <si>
     <t>This is a daily flow, automated. Not related to creators login flows</t>
+  </si>
+  <si>
+    <t>### Flow 9: Creator Claims Reward</t>
+  </si>
+  <si>
+    <t>### Flow 10: Admin Fulfills Reward</t>
+  </si>
+  <si>
+    <t>## Core Features</t>
+  </si>
+  <si>
+    <t>### Automation Monitoring &amp; Reliability</t>
+  </si>
+  <si>
+    <t>### Reward Redemption Rules &amp; Edge Cases</t>
+  </si>
+  <si>
+    <t>### Checkpoint Demotion Policy</t>
+  </si>
+  <si>
+    <t>### Dashboard Performance Optimization</t>
+  </si>
+  <si>
+    <t>### Tier Maintenance Checkpoints (Per-User Rolling Windows, Not Calendar-Based)</t>
+  </si>
+  <si>
+    <t>### Client Branding</t>
+  </si>
+  <si>
+    <t>### Database &amp; Data</t>
+  </si>
+  <si>
+    <t>### Authentication &amp; User Management</t>
+  </si>
+  <si>
+    <t>## Admin Configuration System</t>
+  </si>
+  <si>
+    <t>### Section 1: General Configuration (9 Fields)</t>
+  </si>
+  <si>
+    <t>### Section 2: Reward Names</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1196,6 +1238,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1530,11 +1573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C646EFC9-76BE-47C4-938D-0A30980E5B72}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,159 +1748,153 @@
         <v>298</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B19" t="s">
-        <v>306</v>
-      </c>
-      <c r="C19" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B20" t="s">
-        <v>307</v>
-      </c>
-      <c r="C20" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C21" t="s">
-        <v>319</v>
+        <v>315</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B22" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C22" t="s">
-        <v>319</v>
+        <v>320</v>
+      </c>
+      <c r="E22" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B23" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C23" t="s">
-        <v>319</v>
+        <v>326</v>
+      </c>
+      <c r="E23" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B24" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C24" t="s">
-        <v>319</v>
+        <v>326</v>
+      </c>
+      <c r="E24" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B25" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C25" t="s">
-        <v>319</v>
+        <v>326</v>
+      </c>
+      <c r="E25" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B26" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C26" t="s">
-        <v>319</v>
+        <v>326</v>
+      </c>
+      <c r="E26" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B27" t="s">
-        <v>314</v>
-      </c>
-      <c r="C27" t="s">
-        <v>319</v>
+        <v>325</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B28" t="s">
-        <v>315</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>316</v>
+        <v>327</v>
+      </c>
+      <c r="C28" t="s">
+        <v>326</v>
+      </c>
+      <c r="E28" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s">
-        <v>303</v>
-      </c>
-      <c r="C29" t="s">
-        <v>320</v>
-      </c>
-      <c r="E29" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s">
-        <v>321</v>
-      </c>
-      <c r="C30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E30" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s">
-        <v>322</v>
-      </c>
-      <c r="C31" t="s">
-        <v>326</v>
-      </c>
-      <c r="E31" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1865,60 +1902,183 @@
         <v>305</v>
       </c>
       <c r="B32" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C32" t="s">
-        <v>326</v>
-      </c>
-      <c r="E32" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>305</v>
       </c>
       <c r="B33" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C33" t="s">
-        <v>326</v>
-      </c>
-      <c r="E33" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>305</v>
       </c>
       <c r="B34" t="s">
-        <v>325</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="C34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>305</v>
       </c>
       <c r="B35" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C35" t="s">
-        <v>326</v>
-      </c>
-      <c r="E35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>305</v>
       </c>
       <c r="B36" t="s">
-        <v>328</v>
+        <v>310</v>
+      </c>
+      <c r="C36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>305</v>
+      </c>
+      <c r="B37" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" t="s">
+        <v>312</v>
+      </c>
+      <c r="C38" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>305</v>
+      </c>
+      <c r="B39" t="s">
+        <v>313</v>
+      </c>
+      <c r="C39" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>305</v>
+      </c>
+      <c r="B40" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>332</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>332</v>
+      </c>
+      <c r="B42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>332</v>
+      </c>
+      <c r="B43" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>332</v>
+      </c>
+      <c r="B44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>332</v>
+      </c>
+      <c r="B45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>332</v>
+      </c>
+      <c r="B46" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>332</v>
+      </c>
+      <c r="B47" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>332</v>
+      </c>
+      <c r="B48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>341</v>
+      </c>
+      <c r="B49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>341</v>
+      </c>
+      <c r="B50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
